--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +754,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -767,22 +775,28 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +860,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -861,22 +881,28 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,16 +920,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -911,15 +939,15 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -930,19 +958,25 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,28 +1022,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>-12400</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>-12400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1026,17 +1066,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,16 +1164,16 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>-12100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>-12100</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1134,7 +1188,7 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,13 +1220,13 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>12300</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1178,22 +1238,28 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,16 +1318,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,45 +1347,51 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1323,37 +1403,43 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>600</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>12200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,93 +1606,105 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>12100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,38 +1750,44 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1673,16 +1795,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1800</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1814,63 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>12100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-800</v>
       </c>
       <c r="O33" s="3">
         <v>-700</v>
       </c>
       <c r="P33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>12100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-800</v>
       </c>
       <c r="O35" s="3">
         <v>-700</v>
       </c>
       <c r="P35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,19 +2345,19 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2180,7 +2366,7 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
@@ -2189,13 +2375,19 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,19 +2433,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2268,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2283,13 +2481,19 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2315,10 +2519,10 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2330,13 +2534,19 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,22 +2583,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -2412,25 +2628,31 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
       </c>
       <c r="O48" s="3">
+        <v>800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2612,13 +2852,19 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,13 +2910,19 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>900</v>
@@ -2685,34 +2937,40 @@
         <v>900</v>
       </c>
       <c r="I54" s="3">
+        <v>900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
       </c>
       <c r="N54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1200</v>
       </c>
       <c r="Q54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,217 +3009,243 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
       </c>
       <c r="F58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10500</v>
       </c>
       <c r="K58" s="3">
         <v>10600</v>
       </c>
       <c r="L58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N58" s="3">
         <v>10000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>9900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>9800</v>
       </c>
       <c r="O58" s="3">
         <v>9900</v>
       </c>
       <c r="P58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2967,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -2979,13 +3265,19 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3014,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-28600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-28400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-40300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-39000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-38300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-37900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-37300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-17300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-16600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-14800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-13600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-12800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>12100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-800</v>
       </c>
       <c r="O81" s="3">
         <v>-700</v>
       </c>
       <c r="P81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3868,13 +4266,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,16 +4536,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4138,25 +4572,31 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4188,11 +4630,11 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -4212,17 +4654,23 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,13 +4769,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4354,16 +4814,22 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4593,20 +5085,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,16 +5161,22 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4687,14 +5191,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,13 +755,13 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -781,22 +785,25 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,13 +867,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -887,22 +897,25 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +947,8 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -945,12 +959,12 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
@@ -964,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1048,11 +1068,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,13 +1197,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1194,19 +1221,22 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,22 +1244,22 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1244,22 +1274,25 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1324,16 +1358,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,28 +1378,28 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1371,22 +1408,25 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,19 +1437,19 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
@@ -1418,13 +1458,13 @@
         <v>600</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
@@ -1433,13 +1473,16 @@
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,22 +1714,22 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
@@ -1683,28 +1738,31 @@
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,14 +1843,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1801,16 +1862,19 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1800</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1960,16 +2030,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,22 +2050,22 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
@@ -2001,28 +2074,31 @@
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
       </c>
       <c r="R33" s="3">
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,22 +2162,22 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
@@ -2107,86 +2186,92 @@
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
       </c>
       <c r="R35" s="3">
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,16 +2444,16 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2372,22 +2465,25 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2472,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2487,18 +2586,21 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2525,7 +2627,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
@@ -2540,13 +2642,16 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,17 +2694,20 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2715,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2634,7 +2742,7 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
@@ -2643,16 +2751,19 @@
         <v>800</v>
       </c>
       <c r="Q48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>900</v>
       </c>
       <c r="S48" s="3">
+        <v>900</v>
+      </c>
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2858,13 +2978,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +3051,7 @@
         <v>800</v>
       </c>
       <c r="E54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
@@ -2943,13 +3069,13 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
@@ -2958,19 +3084,22 @@
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E57" s="3">
         <v>2500</v>
       </c>
       <c r="F57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3800</v>
       </c>
       <c r="L57" s="3">
         <v>3800</v>
       </c>
       <c r="M57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N57" s="3">
         <v>3700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3500</v>
       </c>
       <c r="O57" s="3">
         <v>3500</v>
       </c>
       <c r="P57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,49 +3210,52 @@
         <v>1500</v>
       </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
-        <v>1600</v>
-      </c>
       <c r="J58" s="3">
-        <v>10600</v>
+        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>10600</v>
       </c>
       <c r="L58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M58" s="3">
         <v>10500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,7 +3263,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3135,96 +3272,102 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E60" s="3">
         <v>4100</v>
       </c>
       <c r="F60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,19 +3378,19 @@
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3259,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -3271,13 +3414,16 @@
         <v>500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3312,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E66" s="3">
         <v>5600</v>
       </c>
       <c r="F66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-37900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-15300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,22 +4354,22 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
@@ -4183,28 +4378,31 @@
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
       </c>
       <c r="R81" s="3">
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4578,25 +4795,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -4660,17 +4881,20 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4820,16 +5050,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5091,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,19 +5416,22 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5197,11 +5449,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,13 +761,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -788,27 +791,30 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -858,25 +864,28 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -900,22 +909,25 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
@@ -950,8 +963,8 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -962,12 +975,12 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -981,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1071,11 +1090,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1095,17 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,13 +1226,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1224,19 +1250,22 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,22 +1276,22 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1277,22 +1306,25 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,16 +1394,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,28 +1417,28 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1411,22 +1447,25 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,19 +1479,19 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
@@ -1461,13 +1500,13 @@
         <v>600</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>500</v>
@@ -1476,13 +1515,16 @@
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,52 +1535,55 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,52 +1712,55 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,22 +1771,22 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
@@ -1741,28 +1795,31 @@
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,14 +1906,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1865,16 +1925,19 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1800</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2033,16 +2102,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,22 +2125,22 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
@@ -2077,28 +2149,31 @@
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,22 +2243,22 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
@@ -2189,89 +2267,95 @@
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,22 +2399,23 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,16 +2539,16 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2468,22 +2560,25 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,25 +2633,28 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2574,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2589,21 +2687,24 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -2630,7 +2731,7 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2645,13 +2746,16 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2697,17 +2801,20 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2825,7 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2745,7 +2852,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -2754,16 +2861,19 @@
         <v>800</v>
       </c>
       <c r="R48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>900</v>
       </c>
       <c r="T48" s="3">
+        <v>900</v>
+      </c>
+      <c r="U48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2981,13 +3100,16 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,19 +3164,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
       </c>
       <c r="F54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>900</v>
@@ -3072,13 +3197,13 @@
         <v>900</v>
       </c>
       <c r="L54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>1000</v>
       </c>
       <c r="N54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
@@ -3087,19 +3212,22 @@
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2500</v>
       </c>
       <c r="F57" s="3">
         <v>2500</v>
       </c>
       <c r="G57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3800</v>
       </c>
       <c r="M57" s="3">
         <v>3800</v>
       </c>
       <c r="N57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O57" s="3">
         <v>3700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3500</v>
       </c>
       <c r="P57" s="3">
         <v>3500</v>
       </c>
       <c r="Q57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,49 +3346,52 @@
         <v>1500</v>
       </c>
       <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10600</v>
       </c>
       <c r="L58" s="3">
         <v>10600</v>
       </c>
       <c r="M58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N58" s="3">
         <v>10500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3266,7 +3402,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3275,99 +3411,105 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4100</v>
       </c>
       <c r="F60" s="3">
         <v>4100</v>
       </c>
       <c r="G60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,19 +3523,19 @@
         <v>1500</v>
       </c>
       <c r="G61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3405,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
@@ -3417,13 +3559,16 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3461,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5600</v>
       </c>
       <c r="F66" s="3">
         <v>5600</v>
       </c>
       <c r="G66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-15300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-13600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,22 +4551,22 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
@@ -4381,28 +4575,31 @@
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4474,13 +4672,16 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,22 +4972,25 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4798,25 +5014,28 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4860,8 +5080,8 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4872,8 +5092,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -4884,17 +5104,20 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5016,8 +5245,8 @@
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5053,16 +5282,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5340,16 +5585,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5452,11 +5703,11 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,7 +772,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -773,7 +781,7 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -794,33 +802,39 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -867,22 +881,28 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -891,7 +911,7 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -912,22 +932,28 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,28 +975,30 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -978,15 +1006,15 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -997,19 +1025,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,40 +1101,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>-100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>-12400</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>-12400</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1117,17 +1157,23 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1268,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1229,16 +1283,16 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>-12100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>-12100</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1253,7 +1307,7 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1264,8 +1318,14 @@
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,13 +1333,13 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1291,13 +1351,13 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>12300</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1309,22 +1369,28 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1412,15 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1397,16 +1465,22 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,13 +1488,13 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1432,40 +1506,46 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1494,96 +1574,108 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>500</v>
       </c>
       <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
+        <v>500</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,67 +1798,79 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1878,64 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>12100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
       </c>
       <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1909,18 +2031,18 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1928,16 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>1800</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2188,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2105,16 +2245,22 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2268,64 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>12100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
       </c>
       <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-800</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2398,134 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>12100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
       </c>
       <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-800</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2412,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2459,8 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2542,19 +2728,19 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
@@ -2563,7 +2749,7 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
@@ -2572,13 +2758,19 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,31 +2828,37 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2675,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2690,27 +2888,33 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2734,10 +2938,10 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
@@ -2749,13 +2953,19 @@
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2804,17 +3014,23 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2828,10 +3044,10 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2855,25 +3071,31 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
       </c>
       <c r="S48" s="3">
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>800</v>
+      </c>
+      <c r="U48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3103,13 +3343,19 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3176,16 +3428,16 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>900</v>
@@ -3200,34 +3452,40 @@
         <v>900</v>
       </c>
       <c r="M54" s="3">
+        <v>900</v>
+      </c>
+      <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
       </c>
       <c r="R54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T54" s="3">
         <v>1200</v>
       </c>
       <c r="U54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,75 +3532,83 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
@@ -3349,172 +3617,190 @@
         <v>1500</v>
       </c>
       <c r="H58" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>10500</v>
       </c>
       <c r="O58" s="3">
         <v>10600</v>
       </c>
       <c r="P58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R58" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>9900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>9800</v>
       </c>
       <c r="S58" s="3">
         <v>9900</v>
       </c>
       <c r="T58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="U58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="V58" s="3">
         <v>10000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>13500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>13300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
@@ -3526,23 +3812,23 @@
         <v>1500</v>
       </c>
       <c r="H61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3550,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
@@ -3562,13 +3848,19 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3609,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-28800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-28600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-28400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-39000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-38300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-37300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-36600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-35900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-35200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-17300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-16000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-15300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-14300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-13600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-12800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-12200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4938,64 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>12100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
       </c>
       <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-800</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4675,13 +5073,19 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,19 +5418,19 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5017,25 +5451,31 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5497,15 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -5083,11 +5525,11 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5095,11 +5537,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -5107,17 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,13 +5688,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -5248,11 +5708,11 @@
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5285,16 +5745,22 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5588,19 +6080,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,28 +6168,34 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -5706,14 +6210,14 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -778,13 +782,13 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -808,36 +812,39 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,25 +906,25 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -938,22 +948,25 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,22 +990,23 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -1000,8 +1014,8 @@
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1012,12 +1026,12 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
@@ -1031,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1127,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1139,11 +1159,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,10 +1295,10 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1289,13 +1316,13 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1313,30 +1340,33 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1345,22 +1375,22 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1375,22 +1405,25 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,16 +1447,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1471,27 +1505,30 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1500,28 +1537,28 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1530,22 +1567,25 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,19 +1608,19 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>600</v>
@@ -1589,13 +1629,13 @@
         <v>600</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
@@ -1604,13 +1644,16 @@
         <v>500</v>
       </c>
       <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,10 +1661,10 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1630,52 +1673,55 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,10 +1865,10 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1825,63 +1877,66 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1890,22 +1945,22 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
       </c>
       <c r="O27" s="3">
         <v>-700</v>
@@ -1914,28 +1969,31 @@
         <v>-700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,14 +2098,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2056,16 +2117,19 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1800</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,17 +2261,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2251,27 +2321,30 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -2280,22 +2353,22 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
       </c>
       <c r="O33" s="3">
         <v>-700</v>
@@ -2304,28 +2377,31 @@
         <v>-700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-700</v>
       </c>
       <c r="V33" s="3">
         <v>-700</v>
       </c>
       <c r="W33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,19 +2465,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -2410,22 +2489,22 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
       </c>
       <c r="O35" s="3">
         <v>-700</v>
@@ -2434,98 +2513,104 @@
         <v>-700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-700</v>
       </c>
       <c r="V35" s="3">
         <v>-700</v>
       </c>
       <c r="W35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,22 +2670,22 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,11 +2806,11 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2734,16 +2827,16 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2755,22 +2848,25 @@
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,25 +2942,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2879,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2894,30 +2993,33 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2944,7 +3046,7 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -2959,13 +3061,16 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3020,17 +3125,20 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3050,7 +3158,7 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -3077,7 +3185,7 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
@@ -3086,16 +3194,19 @@
         <v>800</v>
       </c>
       <c r="U48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V48" s="3">
         <v>900</v>
       </c>
       <c r="W48" s="3">
+        <v>900</v>
+      </c>
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3349,13 +3469,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>900</v>
@@ -3434,13 +3560,13 @@
         <v>900</v>
       </c>
       <c r="G54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>900</v>
@@ -3458,13 +3584,13 @@
         <v>900</v>
       </c>
       <c r="O54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P54" s="3">
         <v>1000</v>
       </c>
       <c r="Q54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -3473,19 +3599,22 @@
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,61 +3677,64 @@
         <v>2700</v>
       </c>
       <c r="F57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2500</v>
       </c>
       <c r="I57" s="3">
         <v>2500</v>
       </c>
       <c r="J57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3800</v>
       </c>
       <c r="P57" s="3">
         <v>3800</v>
       </c>
       <c r="Q57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R57" s="3">
         <v>3700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3500</v>
       </c>
       <c r="S57" s="3">
         <v>3500</v>
       </c>
       <c r="T57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,7 +3745,7 @@
         <v>1600</v>
       </c>
       <c r="F58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
@@ -3623,49 +3757,52 @@
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>10600</v>
       </c>
       <c r="O58" s="3">
         <v>10600</v>
       </c>
       <c r="P58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>10500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3685,7 +3822,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3694,116 +3831,122 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
       <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E60" s="3">
         <v>4500</v>
       </c>
       <c r="F60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4100</v>
       </c>
       <c r="I60" s="3">
         <v>4100</v>
       </c>
       <c r="J60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1500</v>
       </c>
       <c r="F61" s="3">
         <v>1500</v>
@@ -3818,19 +3961,19 @@
         <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3842,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>500</v>
@@ -3854,13 +3997,16 @@
         <v>500</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3907,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6000</v>
       </c>
       <c r="F66" s="3">
         <v>6000</v>
       </c>
       <c r="G66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H66" s="3">
         <v>5800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5600</v>
       </c>
       <c r="I66" s="3">
         <v>5600</v>
       </c>
       <c r="J66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-29600</v>
       </c>
       <c r="E72" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="F72" s="3">
         <v>-29400</v>
       </c>
       <c r="G72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-35900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-35200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-5100</v>
       </c>
       <c r="F76" s="3">
         <v>-5100</v>
       </c>
       <c r="G76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-15300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-12800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,89 +5048,95 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -4950,22 +5145,22 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
       </c>
       <c r="O81" s="3">
         <v>-700</v>
@@ -4974,28 +5169,31 @@
         <v>-700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-700</v>
       </c>
       <c r="V81" s="3">
         <v>-700</v>
       </c>
       <c r="W81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5079,13 +5278,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,31 +5623,34 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5457,25 +5674,28 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,16 +5719,17 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
@@ -5555,17 +5776,20 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,16 +5921,19 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
@@ -5714,8 +5944,8 @@
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5751,16 +5981,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,10 +6299,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6086,16 +6332,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,16 +6423,19 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6192,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6216,11 +6468,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,7 +773,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -785,13 +788,13 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
@@ -815,22 +818,25 @@
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,16 +844,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,25 +918,25 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -951,22 +960,25 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,25 +1003,26 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -1017,8 +1030,8 @@
       <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1029,12 +1042,12 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -1048,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,22 +1143,25 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1150,11 +1169,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1162,11 +1181,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,10 +1324,10 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1319,13 +1345,13 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1343,19 +1369,22 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1378,22 +1407,22 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1408,22 +1437,25 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1508,16 +1541,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1540,28 +1576,28 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1570,22 +1606,25 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,19 +1650,19 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>600</v>
@@ -1632,13 +1671,13 @@
         <v>600</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>500</v>
@@ -1647,27 +1686,30 @@
         <v>500</v>
       </c>
       <c r="W22" s="3">
+        <v>500</v>
+      </c>
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1676,52 +1718,55 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1880,52 +1931,55 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,13 +1987,13 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1948,22 +2002,22 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
@@ -1972,28 +2026,31 @@
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2101,14 +2161,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2120,16 +2180,19 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1800</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,11 +2342,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2324,16 +2393,19 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,13 +2413,13 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2356,22 +2428,22 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
@@ -2380,28 +2452,31 @@
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-700</v>
       </c>
       <c r="W33" s="3">
         <v>-700</v>
       </c>
       <c r="X33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,13 +2555,13 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2492,22 +2570,22 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
@@ -2516,101 +2594,107 @@
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-700</v>
       </c>
       <c r="W35" s="3">
         <v>-700</v>
       </c>
       <c r="X35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,34 +2746,35 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,23 +2886,26 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2830,16 +2922,16 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2851,22 +2943,25 @@
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,37 +3028,40 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2981,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2996,33 +3094,36 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -3049,7 +3150,7 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -3064,13 +3165,16 @@
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3128,17 +3232,20 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3161,7 +3268,7 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -3188,7 +3295,7 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>800</v>
@@ -3197,16 +3304,19 @@
         <v>800</v>
       </c>
       <c r="V48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W48" s="3">
         <v>900</v>
       </c>
       <c r="X48" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3472,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,16 +3667,19 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
@@ -3563,13 +3688,13 @@
         <v>900</v>
       </c>
       <c r="H54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
       </c>
       <c r="J54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>900</v>
@@ -3587,13 +3712,13 @@
         <v>900</v>
       </c>
       <c r="P54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q54" s="3">
         <v>1000</v>
       </c>
       <c r="R54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
@@ -3602,19 +3727,22 @@
         <v>1100</v>
       </c>
       <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3794,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E57" s="3">
         <v>2700</v>
@@ -3680,61 +3810,64 @@
         <v>2700</v>
       </c>
       <c r="G57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2500</v>
       </c>
       <c r="J57" s="3">
         <v>2500</v>
       </c>
       <c r="K57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3800</v>
       </c>
       <c r="Q57" s="3">
         <v>3800</v>
       </c>
       <c r="R57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S57" s="3">
         <v>3700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3500</v>
       </c>
       <c r="T57" s="3">
         <v>3500</v>
       </c>
       <c r="U57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,7 +3881,7 @@
         <v>1600</v>
       </c>
       <c r="G58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
@@ -3760,54 +3893,57 @@
         <v>1500</v>
       </c>
       <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>10600</v>
       </c>
       <c r="P58" s="3">
         <v>10600</v>
       </c>
       <c r="Q58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R58" s="3">
         <v>10500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3816,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3825,7 +3961,7 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3834,122 +3970,128 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4500</v>
       </c>
       <c r="F60" s="3">
         <v>4500</v>
       </c>
       <c r="G60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4100</v>
       </c>
       <c r="J60" s="3">
         <v>4100</v>
       </c>
       <c r="K60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1500</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
@@ -3964,19 +4106,19 @@
         <v>1500</v>
       </c>
       <c r="K61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3988,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>500</v>
@@ -4000,13 +4142,16 @@
         <v>500</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6000</v>
       </c>
       <c r="G66" s="3">
         <v>6000</v>
       </c>
       <c r="H66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I66" s="3">
         <v>5800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5600</v>
       </c>
       <c r="J66" s="3">
         <v>5600</v>
       </c>
       <c r="K66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="E72" s="3">
         <v>-29600</v>
       </c>
       <c r="F72" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="G72" s="3">
         <v>-29400</v>
       </c>
       <c r="H72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-29300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-37300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-35900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-35200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-5100</v>
       </c>
       <c r="G76" s="3">
         <v>-5100</v>
       </c>
       <c r="H76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-17300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-16000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-15300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-14300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-13600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-12200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,13 +5327,13 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -5148,22 +5342,22 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
@@ -5172,28 +5366,31 @@
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-700</v>
       </c>
       <c r="W81" s="3">
         <v>-700</v>
       </c>
       <c r="X81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5281,13 +5479,16 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,25 +5851,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5677,25 +5893,28 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5731,8 +5951,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -5755,8 +5975,8 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5767,8 +5987,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -5779,17 +5999,20 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5935,8 +6164,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
@@ -5947,8 +6176,8 @@
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5984,16 +6213,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -6335,16 +6580,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,19 +6674,22 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6447,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6471,11 +6722,11 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,10 +784,10 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -791,7 +799,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -800,7 +808,7 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -821,22 +829,28 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,19 +861,19 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,19 +941,19 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -942,7 +962,7 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -963,22 +983,28 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,40 +1030,42 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1045,15 +1073,15 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
@@ -1064,19 +1092,25 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,52 +1180,58 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>-100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>-12400</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>-12400</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1208,17 +1248,23 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,28 +1364,30 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1348,16 +1402,16 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>-12100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>-12100</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1372,7 +1426,7 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1383,19 +1437,25 @@
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1404,13 +1464,13 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1422,13 +1482,13 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>12300</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1440,22 +1500,28 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1544,42 +1612,48 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1591,40 +1665,46 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1653,7 +1733,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1665,108 +1745,120 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>600</v>
       </c>
       <c r="S22" s="3">
+        <v>600</v>
+      </c>
+      <c r="T22" s="3">
+        <v>600</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>500</v>
-      </c>
-      <c r="V22" s="3">
-        <v>500</v>
       </c>
       <c r="W22" s="3">
         <v>500</v>
       </c>
       <c r="X22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-600</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>12200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-600</v>
       </c>
       <c r="R26" s="3">
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>12100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-700</v>
       </c>
       <c r="R27" s="3">
         <v>-700</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2164,18 +2286,18 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2183,16 +2305,22 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>1800</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,14 +2485,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2396,87 +2536,99 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>12100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
       </c>
       <c r="R33" s="3">
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-800</v>
       </c>
       <c r="W33" s="3">
         <v>-700</v>
       </c>
       <c r="X33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>12100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
       </c>
       <c r="R35" s="3">
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-800</v>
       </c>
       <c r="W35" s="3">
         <v>-700</v>
       </c>
       <c r="X35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,22 +2919,24 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2771,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,20 +3084,20 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2925,19 +3111,19 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -2946,7 +3132,7 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
@@ -2955,13 +3141,19 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,34 +3238,34 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3082,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3097,39 +3295,45 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -3153,10 +3357,10 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
@@ -3168,13 +3372,19 @@
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3235,25 +3445,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -3271,10 +3487,10 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3298,48 +3514,54 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>800</v>
       </c>
       <c r="W48" s="3">
+        <v>800</v>
+      </c>
+      <c r="X48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y48" s="3">
         <v>900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3594,13 +3834,19 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,37 +3916,43 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>8800</v>
       </c>
       <c r="E54" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
       </c>
       <c r="G54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>900</v>
       </c>
       <c r="I54" s="3">
+        <v>900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>900</v>
+      </c>
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>900</v>
@@ -3715,34 +3967,40 @@
         <v>900</v>
       </c>
       <c r="Q54" s="3">
+        <v>900</v>
+      </c>
+      <c r="R54" s="3">
+        <v>900</v>
+      </c>
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1100</v>
       </c>
       <c r="U54" s="3">
         <v>1100</v>
       </c>
       <c r="V54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="W54" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="X54" s="3">
         <v>1200</v>
       </c>
       <c r="Y54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,87 +4055,95 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2700</v>
       </c>
       <c r="G57" s="3">
         <v>2700</v>
       </c>
       <c r="H57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
@@ -3884,10 +4152,10 @@
         <v>1600</v>
       </c>
       <c r="H58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J58" s="3">
         <v>1500</v>
@@ -3896,49 +4164,55 @@
         <v>1500</v>
       </c>
       <c r="L58" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>10600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>10500</v>
       </c>
       <c r="S58" s="3">
         <v>10600</v>
       </c>
       <c r="T58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="U58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V58" s="3">
         <v>10000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>9900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>9800</v>
       </c>
       <c r="W58" s="3">
         <v>9900</v>
       </c>
       <c r="X58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Z58" s="3">
         <v>10000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,158 +4220,170 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>18200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>14700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>14200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>13500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>13300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>1600</v>
       </c>
       <c r="G61" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I61" s="3">
         <v>1500</v>
@@ -4109,23 +4395,23 @@
         <v>1500</v>
       </c>
       <c r="L61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4133,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>500</v>
@@ -4145,21 +4431,27 @@
         <v>500</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4204,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>14100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>13400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-28800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-28600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-28400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-28200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-39700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-39000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-37900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-37300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-36600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-35900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-16600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-16000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-15300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-14800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-14300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-13600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-12800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>12100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
       </c>
       <c r="R81" s="3">
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-800</v>
       </c>
       <c r="W81" s="3">
         <v>-700</v>
       </c>
       <c r="X81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5482,13 +5880,19 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,40 +6270,46 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5896,25 +6330,31 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6380,15 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5954,11 +6396,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -5978,11 +6420,11 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5990,11 +6432,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
@@ -6002,17 +6444,23 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6167,11 +6627,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
@@ -6179,11 +6639,11 @@
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6216,16 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,28 +7021,34 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -6583,19 +7075,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,40 +7175,46 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6725,14 +7229,14 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -790,7 +794,7 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -805,13 +809,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -835,27 +839,30 @@
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -867,16 +874,16 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -926,13 +933,16 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -947,25 +957,25 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -989,22 +999,25 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,34 +1045,35 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>10</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>10</v>
@@ -1067,8 +1081,8 @@
       <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1079,12 +1093,12 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -1098,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,31 +1203,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1218,11 +1238,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1230,11 +1250,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1254,22 +1274,25 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,19 +1392,20 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1387,10 +1414,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1408,13 +1435,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1432,42 +1459,45 @@
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1476,22 +1506,22 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1506,22 +1536,25 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1618,39 +1652,42 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1659,28 +1696,28 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1689,22 +1726,25 @@
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,10 +1752,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1739,19 +1779,19 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>600</v>
@@ -1760,13 +1800,13 @@
         <v>600</v>
       </c>
       <c r="U22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>500</v>
@@ -1775,36 +1815,39 @@
         <v>500</v>
       </c>
       <c r="Z22" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1813,52 +1856,55 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
       </c>
       <c r="W23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,31 +2060,34 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -2044,60 +2096,63 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
       </c>
       <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -2106,13 +2161,13 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -2121,22 +2176,22 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
       </c>
       <c r="S27" s="3">
         <v>-700</v>
@@ -2145,28 +2200,31 @@
         <v>-700</v>
       </c>
       <c r="U27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2292,14 +2353,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2311,16 +2372,19 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1800</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,11 +2561,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2542,24 +2612,27 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2568,13 +2641,13 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2583,22 +2656,22 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
@@ -2607,28 +2680,31 @@
         <v>-700</v>
       </c>
       <c r="U33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-700</v>
       </c>
       <c r="Z33" s="3">
         <v>-700</v>
       </c>
       <c r="AA33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,16 +2780,19 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2722,13 +2801,13 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2737,22 +2816,22 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
@@ -2761,110 +2840,116 @@
         <v>-700</v>
       </c>
       <c r="U35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-700</v>
       </c>
       <c r="Z35" s="3">
         <v>-700</v>
       </c>
       <c r="AA35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,43 +3007,44 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -3090,17 +3183,17 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -3117,16 +3210,16 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
@@ -3138,22 +3231,25 @@
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,13 +3325,16 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3244,31 +3343,31 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3286,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3301,42 +3400,45 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3363,7 +3465,7 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
@@ -3378,13 +3480,16 @@
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3451,28 +3556,31 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>10</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -3493,7 +3601,7 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3520,7 +3628,7 @@
         <v>700</v>
       </c>
       <c r="V48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W48" s="3">
         <v>800</v>
@@ -3529,24 +3637,27 @@
         <v>800</v>
       </c>
       <c r="Y48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Z48" s="3">
         <v>900</v>
       </c>
       <c r="AA48" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -3563,8 +3674,8 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3840,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,25 +4045,28 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
         <v>8800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>900</v>
@@ -3949,13 +4075,13 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
       </c>
       <c r="M54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N54" s="3">
         <v>900</v>
@@ -3973,13 +4099,13 @@
         <v>900</v>
       </c>
       <c r="S54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T54" s="3">
         <v>1000</v>
       </c>
       <c r="U54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
@@ -3988,19 +4114,22 @@
         <v>1100</v>
       </c>
       <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,22 +4187,23 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2700</v>
       </c>
       <c r="H57" s="3">
         <v>2700</v>
@@ -4081,72 +4212,75 @@
         <v>2700</v>
       </c>
       <c r="J57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2500</v>
       </c>
       <c r="M57" s="3">
         <v>2500</v>
       </c>
       <c r="N57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3800</v>
       </c>
       <c r="T57" s="3">
         <v>3800</v>
       </c>
       <c r="U57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V57" s="3">
         <v>3700</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3500</v>
       </c>
       <c r="W57" s="3">
         <v>3500</v>
       </c>
       <c r="X57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
@@ -4158,7 +4292,7 @@
         <v>1600</v>
       </c>
       <c r="J58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
@@ -4170,49 +4304,52 @@
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>10600</v>
       </c>
       <c r="S58" s="3">
         <v>10600</v>
       </c>
       <c r="T58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U58" s="3">
         <v>10500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4363,7 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -4235,7 +4372,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -4244,7 +4381,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -4253,140 +4390,146 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
-        <v>100</v>
-      </c>
       <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4500</v>
       </c>
       <c r="I60" s="3">
         <v>4500</v>
       </c>
       <c r="J60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4100</v>
       </c>
       <c r="M60" s="3">
         <v>4100</v>
       </c>
       <c r="N60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
@@ -4401,19 +4544,19 @@
         <v>1500</v>
       </c>
       <c r="N61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>600</v>
       </c>
       <c r="Q61" s="3">
         <v>600</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4425,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>500</v>
@@ -4437,24 +4580,27 @@
         <v>500</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4502,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,76 +4917,79 @@
         <v>3800</v>
       </c>
       <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6000</v>
       </c>
       <c r="J66" s="3">
         <v>6000</v>
       </c>
       <c r="K66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L66" s="3">
         <v>5800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5600</v>
       </c>
       <c r="M66" s="3">
         <v>5600</v>
       </c>
       <c r="N66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-29600</v>
       </c>
       <c r="H72" s="3">
         <v>-29600</v>
       </c>
       <c r="I72" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="J72" s="3">
         <v>-29400</v>
       </c>
       <c r="K72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-29300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-37900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-35200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-5100</v>
       </c>
       <c r="J76" s="3">
         <v>-5100</v>
       </c>
       <c r="K76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-16000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-15300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-14800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-14300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,98 +5815,104 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -5726,13 +5921,13 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -5741,22 +5936,22 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
@@ -5765,28 +5960,31 @@
         <v>-700</v>
       </c>
       <c r="U81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-700</v>
       </c>
       <c r="Z81" s="3">
         <v>-700</v>
       </c>
       <c r="AA81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6012,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5886,13 +6085,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,17 +6490,20 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6294,25 +6511,25 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6336,25 +6553,28 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,16 +6602,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6402,8 +6623,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -6426,8 +6647,8 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6438,8 +6659,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
@@ -6450,17 +6671,20 @@
       <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6633,8 +6863,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
@@ -6645,8 +6875,8 @@
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6682,16 +6912,19 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,20 +7270,23 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7048,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7081,16 +7327,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,28 +7430,31 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -7211,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7235,11 +7487,11 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,7 +788,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -797,7 +800,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -812,13 +815,13 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
@@ -842,31 +845,34 @@
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
       <c r="AB8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
@@ -877,16 +883,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -936,17 +942,20 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
@@ -960,25 +969,25 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -1002,22 +1011,25 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,37 +1058,38 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>10</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>10</v>
@@ -1084,8 +1097,8 @@
       <c r="N12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1096,12 +1109,12 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
@@ -1115,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,34 +1222,37 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1241,11 +1260,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1253,11 +1272,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>-12400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1277,17 +1296,20 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,13 +1428,13 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1417,10 +1443,10 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1438,13 +1464,13 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-12100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1462,19 +1488,22 @@
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,25 +1511,25 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1509,22 +1538,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1539,22 +1568,25 @@
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1604,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1655,42 +1688,45 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1699,28 +1735,28 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
@@ -1729,36 +1765,39 @@
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1782,19 +1821,19 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>600</v>
@@ -1803,13 +1842,13 @@
         <v>600</v>
       </c>
       <c r="V22" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
       </c>
       <c r="X22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>500</v>
@@ -1818,13 +1857,16 @@
         <v>500</v>
       </c>
       <c r="AA22" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB22" s="3">
         <v>700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,25 +1874,25 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1859,52 +1901,55 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
       </c>
       <c r="W23" s="3">
         <v>-500</v>
       </c>
       <c r="X23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,25 +2123,25 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -2099,52 +2150,55 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
       </c>
       <c r="W26" s="3">
         <v>-500</v>
       </c>
       <c r="X26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,10 +2206,10 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -2164,13 +2218,13 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -2179,22 +2233,22 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-700</v>
       </c>
       <c r="T27" s="3">
         <v>-700</v>
@@ -2203,28 +2257,31 @@
         <v>-700</v>
       </c>
       <c r="V27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2356,14 +2416,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2375,16 +2435,19 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1800</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2564,11 +2633,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2615,16 +2684,19 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,10 +2704,10 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2644,13 +2716,13 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -2659,22 +2731,22 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-700</v>
       </c>
       <c r="T33" s="3">
         <v>-700</v>
@@ -2683,28 +2755,31 @@
         <v>-700</v>
       </c>
       <c r="V33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-700</v>
       </c>
       <c r="AA33" s="3">
         <v>-700</v>
       </c>
       <c r="AB33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,10 +2870,10 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2804,13 +2882,13 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -2819,22 +2897,22 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-700</v>
       </c>
       <c r="T35" s="3">
         <v>-700</v>
@@ -2843,113 +2921,119 @@
         <v>-700</v>
       </c>
       <c r="V35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-700</v>
       </c>
       <c r="AA35" s="3">
         <v>-700</v>
       </c>
       <c r="AB35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,37 +3103,37 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,16 +3257,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -3186,17 +3278,17 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -3213,16 +3305,16 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
@@ -3234,22 +3326,25 @@
         <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,17 +3423,20 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -3346,31 +3444,31 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3388,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3403,45 +3501,48 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -3468,7 +3569,7 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
@@ -3483,13 +3584,16 @@
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3559,31 +3663,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>10</v>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -3604,7 +3711,7 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -3631,7 +3738,7 @@
         <v>700</v>
       </c>
       <c r="W48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="X48" s="3">
         <v>800</v>
@@ -3640,16 +3747,19 @@
         <v>800</v>
       </c>
       <c r="Z48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AA48" s="3">
         <v>900</v>
       </c>
       <c r="AB48" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,10 +3767,10 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3">
         <v>2200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -3677,8 +3787,8 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3963,13 +4082,16 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,28 +4170,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>900</v>
       </c>
       <c r="J54" s="3">
         <v>900</v>
@@ -4078,13 +4203,13 @@
         <v>900</v>
       </c>
       <c r="L54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
       <c r="N54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>900</v>
@@ -4102,13 +4227,13 @@
         <v>900</v>
       </c>
       <c r="T54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U54" s="3">
         <v>1000</v>
       </c>
       <c r="V54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W54" s="3">
         <v>1100</v>
@@ -4117,19 +4242,22 @@
         <v>1100</v>
       </c>
       <c r="Y54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,25 +4317,26 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2700</v>
       </c>
       <c r="I57" s="3">
         <v>2700</v>
@@ -4215,75 +4345,78 @@
         <v>2700</v>
       </c>
       <c r="K57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2500</v>
       </c>
       <c r="N57" s="3">
         <v>2500</v>
       </c>
       <c r="O57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>3800</v>
       </c>
       <c r="U57" s="3">
         <v>3800</v>
       </c>
       <c r="V57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W57" s="3">
         <v>3700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>3500</v>
       </c>
       <c r="X57" s="3">
         <v>3500</v>
       </c>
       <c r="Y57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>3300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1600</v>
@@ -4295,7 +4428,7 @@
         <v>1600</v>
       </c>
       <c r="K58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
@@ -4307,49 +4440,52 @@
         <v>1500</v>
       </c>
       <c r="O58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>10600</v>
       </c>
       <c r="T58" s="3">
         <v>10600</v>
       </c>
       <c r="U58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V58" s="3">
         <v>10500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>10000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4366,7 +4502,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -4375,7 +4511,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -4384,7 +4520,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4393,123 +4529,129 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
-        <v>100</v>
-      </c>
       <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4500</v>
       </c>
       <c r="J60" s="3">
         <v>4500</v>
       </c>
       <c r="K60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4100</v>
       </c>
       <c r="N60" s="3">
         <v>4100</v>
       </c>
       <c r="O60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>13300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,22 +4659,22 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1500</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
@@ -4547,19 +4689,19 @@
         <v>1500</v>
       </c>
       <c r="O61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>600</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4571,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>500</v>
@@ -4583,13 +4725,16 @@
         <v>500</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,13 +4742,13 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4651,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>100</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
         <v>3800</v>
       </c>
       <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6000</v>
       </c>
       <c r="K66" s="3">
         <v>6000</v>
       </c>
       <c r="L66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M66" s="3">
         <v>5800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5600</v>
       </c>
       <c r="N66" s="3">
         <v>5600</v>
       </c>
       <c r="O66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-29600</v>
       </c>
       <c r="I72" s="3">
         <v>-29600</v>
       </c>
       <c r="J72" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="K72" s="3">
         <v>-29400</v>
       </c>
       <c r="L72" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-29300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-40300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-37300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-35900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-35200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-5100</v>
       </c>
       <c r="K76" s="3">
         <v>-5100</v>
       </c>
       <c r="L76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-16600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-16000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-15300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-14800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,10 +6106,10 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -5924,13 +6118,13 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -5939,22 +6133,22 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-700</v>
       </c>
       <c r="T81" s="3">
         <v>-700</v>
@@ -5963,28 +6157,31 @@
         <v>-700</v>
       </c>
       <c r="V81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-700</v>
       </c>
       <c r="AA81" s="3">
         <v>-700</v>
       </c>
       <c r="AB81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,7 +6220,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -6088,13 +6286,16 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,20 +6706,23 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -6514,25 +6730,25 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6556,25 +6772,28 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6614,8 +6834,8 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6626,8 +6846,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -6650,8 +6870,8 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6662,8 +6882,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
@@ -6674,17 +6894,20 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6866,8 +7095,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -6878,8 +7107,8 @@
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6915,16 +7144,19 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,14 +7527,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -7297,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -7330,16 +7575,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,31 +7681,34 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7466,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7490,11 +7741,11 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DBRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DBRM</t>
   </si>
@@ -6828,14 +6828,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
